--- a/pandas_chart_line.xlsx
+++ b/pandas_chart_line.xlsx
@@ -202,67 +202,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>61</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>15</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>79</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>55</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -364,67 +364,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>83</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>68</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -526,67 +526,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>66</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,67 +688,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1197,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1214,16 +1214,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1231,16 +1231,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C5">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1248,16 +1248,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1265,13 +1265,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>26</v>
@@ -1282,16 +1282,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1299,16 +1299,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1316,16 +1316,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1333,16 +1333,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1350,16 +1350,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E12">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1367,16 +1367,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C13">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>87</v>
@@ -1401,16 +1401,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1418,16 +1418,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1435,16 +1435,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C17">
+        <v>54</v>
+      </c>
+      <c r="D17">
         <v>36</v>
       </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
       <c r="E17">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1452,16 +1452,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E18">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1469,16 +1469,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1486,16 +1486,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D20">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="E20">
-        <v>71</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1503,16 +1503,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C21">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1520,16 +1520,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
